--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_10.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_10.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_1</t>
+          <t>model_1_10_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9968934998009331</v>
+        <v>0.9466446534908493</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8162850148549852</v>
+        <v>0.717261682917453</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7890320068977651</v>
+        <v>0.7778066474042709</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9979856405328469</v>
+        <v>0.9153192871058728</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01293089001233196</v>
+        <v>0.1712859853887006</v>
       </c>
       <c r="G2" t="n">
-        <v>1.228502951594437</v>
+        <v>1.890672428221233</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7546202786996113</v>
+        <v>0.7947727387240995</v>
       </c>
       <c r="I2" t="n">
-        <v>0.009940098884492063</v>
+        <v>0.1908987908586113</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2520578884234607</v>
+        <v>1.202689736781064</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1137140713031239</v>
+        <v>0.4138671107840059</v>
       </c>
       <c r="L2" t="n">
-        <v>1.198816012740281</v>
+        <v>0.9273459111364756</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1155049542537803</v>
+        <v>0.4203851040635249</v>
       </c>
       <c r="N2" t="n">
-        <v>138.6962725108805</v>
+        <v>37.52884138051628</v>
       </c>
       <c r="O2" t="n">
-        <v>280.0314450540969</v>
+        <v>74.4934249687421</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_2</t>
+          <t>model_1_10_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9969241604363464</v>
+        <v>0.9466246903532589</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8160697455816445</v>
+        <v>0.7171802814527224</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7877630419358058</v>
+        <v>0.7778430731043265</v>
       </c>
       <c r="E3" t="n">
-        <v>0.997881845284491</v>
+        <v>0.9156162385828789</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01280326429888241</v>
+        <v>0.1713500727935688</v>
       </c>
       <c r="G3" t="n">
-        <v>1.22994245821649</v>
+        <v>1.891216760190706</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7591592927897235</v>
+        <v>0.7946424461070836</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01045228901203449</v>
+        <v>0.1902293624142027</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2491765016258384</v>
+        <v>1.200814123357836</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1131515103694264</v>
+        <v>0.4139445286431128</v>
       </c>
       <c r="L3" t="n">
-        <v>1.196853732073833</v>
+        <v>0.927318727289544</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1149335335477317</v>
+        <v>0.4204637411765232</v>
       </c>
       <c r="N3" t="n">
-        <v>138.7161102344386</v>
+        <v>37.5280932116755</v>
       </c>
       <c r="O3" t="n">
-        <v>280.051282777655</v>
+        <v>74.49267679990132</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_5</t>
+          <t>model_1_10_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9971803713422566</v>
+        <v>0.9466037538531205</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8160250075093556</v>
+        <v>0.7170975590045581</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7899540359856818</v>
+        <v>0.777879107159437</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9980958209163898</v>
+        <v>0.9159153035939208</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01173677956301149</v>
+        <v>0.1714172849717556</v>
       </c>
       <c r="G4" t="n">
-        <v>1.230241621911886</v>
+        <v>1.891769925582482</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7513222341144515</v>
+        <v>0.7945135543813283</v>
       </c>
       <c r="I4" t="n">
-        <v>0.009396400539977416</v>
+        <v>0.1895551693536484</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2258084837011613</v>
+        <v>1.198916590222448</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1083364184520214</v>
+        <v>0.4140257056895811</v>
       </c>
       <c r="L4" t="n">
-        <v>1.18045623409558</v>
+        <v>0.9272902180127598</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1100426087459536</v>
+        <v>0.4205461966803261</v>
       </c>
       <c r="N4" t="n">
-        <v>138.8900556308294</v>
+        <v>37.52730886418702</v>
       </c>
       <c r="O4" t="n">
-        <v>280.2252281740458</v>
+        <v>74.49189245241284</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_3</t>
+          <t>model_1_10_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9970753814183071</v>
+        <v>0.9465818042009907</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8159604962783178</v>
+        <v>0.7170135253944379</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7901537877589424</v>
+        <v>0.7779148413448304</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9980538967280278</v>
+        <v>0.9162163067789624</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01217380292434958</v>
+        <v>0.1714877496588016</v>
       </c>
       <c r="G5" t="n">
-        <v>1.230673008810882</v>
+        <v>1.892331858720295</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7506077336037716</v>
+        <v>0.7943857352721633</v>
       </c>
       <c r="I5" t="n">
-        <v>0.009603280486067744</v>
+        <v>0.1888766069974141</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2285349227567133</v>
+        <v>1.196998205712176</v>
       </c>
       <c r="K5" t="n">
-        <v>0.110334957852666</v>
+        <v>0.4141107939414301</v>
       </c>
       <c r="L5" t="n">
-        <v>1.187175589228346</v>
+        <v>0.9272603291247533</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1120726231443519</v>
+        <v>0.4206326249870847</v>
       </c>
       <c r="N5" t="n">
-        <v>138.8169378745656</v>
+        <v>37.5264868909767</v>
       </c>
       <c r="O5" t="n">
-        <v>280.152110417782</v>
+        <v>74.49107047920252</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_4</t>
+          <t>model_1_10_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9971251552640277</v>
+        <v>0.9465587815530144</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8159376285141556</v>
+        <v>0.7169281259441221</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7902176083175214</v>
+        <v>0.7779501335662729</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9980808700024753</v>
+        <v>0.9165196227465334</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01196661796273401</v>
+        <v>0.1715616589706676</v>
       </c>
       <c r="G6" t="n">
-        <v>1.230825925655131</v>
+        <v>1.892902925237785</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7503794511662634</v>
+        <v>0.7942594970424237</v>
       </c>
       <c r="I6" t="n">
-        <v>0.009470177621550011</v>
+        <v>0.1881928308519557</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2274640658699927</v>
+        <v>1.195059374201861</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1093920379311676</v>
+        <v>0.4142000229003707</v>
       </c>
       <c r="L6" t="n">
-        <v>1.183990063102229</v>
+        <v>0.9272289791360196</v>
       </c>
       <c r="M6" t="n">
-        <v>0.111114853176664</v>
+        <v>0.4207232592129324</v>
       </c>
       <c r="N6" t="n">
-        <v>138.8512686842616</v>
+        <v>37.52562509892984</v>
       </c>
       <c r="O6" t="n">
-        <v>280.186441227478</v>
+        <v>74.49020868715566</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_0</t>
+          <t>model_1_10_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9965262174835089</v>
+        <v>0.946534676318908</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8156362530403071</v>
+        <v>0.7168413506089251</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7876402479632921</v>
+        <v>0.7779849182737105</v>
       </c>
       <c r="E7" t="n">
-        <v>0.997603166389557</v>
+        <v>0.9168248704203258</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01445971246388496</v>
+        <v>0.1716390436949193</v>
       </c>
       <c r="G7" t="n">
-        <v>1.232841224836463</v>
+        <v>1.893483192303811</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7595985197094015</v>
+        <v>0.7941350741608527</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01182746351183683</v>
+        <v>0.1875046999913639</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2545776780087767</v>
+        <v>1.193102151016384</v>
       </c>
       <c r="K7" t="n">
-        <v>0.12024854453957</v>
+        <v>0.4142934270476896</v>
       </c>
       <c r="L7" t="n">
-        <v>1.222322081055431</v>
+        <v>0.9271961549874491</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1221423389116237</v>
+        <v>0.4208181343822016</v>
       </c>
       <c r="N7" t="n">
-        <v>138.4727778947622</v>
+        <v>37.52472318089806</v>
       </c>
       <c r="O7" t="n">
-        <v>279.8079504379786</v>
+        <v>74.48930676912389</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_9</t>
+          <t>model_1_10_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9976114437535851</v>
+        <v>0.9465094815979659</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8154138567319633</v>
+        <v>0.7167531545225918</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7925322979121467</v>
+        <v>0.7780192986721969</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9979254671940837</v>
+        <v>0.917132125254578</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00994242914258852</v>
+        <v>0.1717199259848021</v>
       </c>
       <c r="G8" t="n">
-        <v>1.234328389974399</v>
+        <v>1.894072959939227</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7420999406997026</v>
+        <v>0.7940120974689568</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0102370314564926</v>
+        <v>0.1868120443164224</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2167257115206064</v>
+        <v>1.191120367668478</v>
       </c>
       <c r="K8" t="n">
-        <v>0.09971173021559961</v>
+        <v>0.4143910302899932</v>
       </c>
       <c r="L8" t="n">
-        <v>1.152867599770552</v>
+        <v>0.9271618472823365</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1012820902913334</v>
+        <v>0.4209172747780042</v>
       </c>
       <c r="N8" t="n">
-        <v>139.2218878152552</v>
+        <v>37.52378093329691</v>
       </c>
       <c r="O8" t="n">
-        <v>280.5570603584716</v>
+        <v>74.48836452152273</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_7</t>
+          <t>model_1_10_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9974069595578958</v>
+        <v>0.946483127866964</v>
       </c>
       <c r="C9" t="n">
-        <v>0.814995450523867</v>
+        <v>0.7166635156534918</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7933373462042496</v>
+        <v>0.7780531720706061</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9979797185380676</v>
+        <v>0.9174416319258772</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01079360006622565</v>
+        <v>0.1718045290298326</v>
       </c>
       <c r="G9" t="n">
-        <v>1.237126274214522</v>
+        <v>1.894672375469648</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7392203296382327</v>
+        <v>0.7938909342869395</v>
       </c>
       <c r="I9" t="n">
-        <v>0.009969321679459834</v>
+        <v>0.1861143122438597</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2206604863468798</v>
+        <v>1.189120054893924</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1038922521953666</v>
+        <v>0.4144930988928919</v>
       </c>
       <c r="L9" t="n">
-        <v>1.165954588294667</v>
+        <v>0.9271259613507594</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1055284513132929</v>
+        <v>0.4210209508593673</v>
       </c>
       <c r="N9" t="n">
-        <v>139.0576038139226</v>
+        <v>37.52279581511384</v>
       </c>
       <c r="O9" t="n">
-        <v>280.392776357139</v>
+        <v>74.48737940333966</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_8</t>
+          <t>model_1_10_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9974430378366705</v>
+        <v>0.946455557126294</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8149696295065667</v>
+        <v>0.7165724023688627</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7929462682388202</v>
+        <v>0.7780865601167252</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9979804496393184</v>
+        <v>0.9177531303918163</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01064342326764992</v>
+        <v>0.1718930390254098</v>
       </c>
       <c r="G10" t="n">
-        <v>1.237298939476104</v>
+        <v>1.895281650423501</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7406191928445703</v>
+        <v>0.793771507181922</v>
       </c>
       <c r="I10" t="n">
-        <v>0.009965713972470758</v>
+        <v>0.1854120899966707</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2211652044147266</v>
+        <v>1.187100150028826</v>
       </c>
       <c r="K10" t="n">
-        <v>0.103166967909549</v>
+        <v>0.4145998541068361</v>
       </c>
       <c r="L10" t="n">
-        <v>1.163645578453085</v>
+        <v>0.927088418214528</v>
       </c>
       <c r="M10" t="n">
-        <v>0.104791744524992</v>
+        <v>0.4211293873612151</v>
       </c>
       <c r="N10" t="n">
-        <v>139.0856262222662</v>
+        <v>37.52176572347793</v>
       </c>
       <c r="O10" t="n">
-        <v>280.4207987654826</v>
+        <v>74.48634931170375</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_6</t>
+          <t>model_1_10_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.997363094944553</v>
+        <v>0.9464268113544247</v>
       </c>
       <c r="C11" t="n">
-        <v>0.814877873674591</v>
+        <v>0.716479797659985</v>
       </c>
       <c r="D11" t="n">
-        <v>0.792999238272962</v>
+        <v>0.7781194044362851</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9979451500607915</v>
+        <v>0.9180667538824474</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01097618769031138</v>
+        <v>0.1719853212085936</v>
       </c>
       <c r="G11" t="n">
-        <v>1.237912511147022</v>
+        <v>1.895900898538172</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7404297221038237</v>
+        <v>0.7936540249552788</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01013990398515665</v>
+        <v>0.1847050772295346</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2222462136117389</v>
+        <v>1.185059259913095</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1047673025820145</v>
+        <v>0.4147111298344832</v>
       </c>
       <c r="L11" t="n">
-        <v>1.168761923548608</v>
+        <v>0.9270492750358125</v>
       </c>
       <c r="M11" t="n">
-        <v>0.106417282868801</v>
+        <v>0.4212424155703376</v>
       </c>
       <c r="N11" t="n">
-        <v>139.02405421616</v>
+        <v>37.52069229524201</v>
       </c>
       <c r="O11" t="n">
-        <v>280.3592267593764</v>
+        <v>74.48527588346784</v>
       </c>
     </row>
   </sheetData>
